--- a/kossel_frame_calc.xlsx
+++ b/kossel_frame_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="9780"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="16275" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>mm length of horizontal OpenBeam (triangle)</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>Enter your build parameters in these inputs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DELTA_RADIUS/ Horizontal radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Diagonal Rod Horizontal length </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -685,7 +706,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,13 +734,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -733,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -766,7 +787,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>28</v>
+        <v>21.1</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>6</v>
@@ -800,14 +821,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f>A12-A6-A5</f>
-        <v>104.55444566227678</v>
+        <v>112.63734943093152</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f>D2*SQRT(2)</f>
-        <v>197.98989873223331</v>
+        <v>176.77669529663689</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -816,14 +837,14 @@
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>(A18/2)/SIN(60*PI()/180 )</f>
-        <v>151.55444566227678</v>
+        <v>159.63734943093152</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2">
         <f>D11/2</f>
-        <v>98.994949366116657</v>
+        <v>88.388347648318444</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>18</v>
@@ -832,14 +853,14 @@
     <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f>((A11*2)-A5)/COS(A7*PI()/180)</f>
-        <v>214.17906663319761</v>
+        <v>220.02671215588472</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
         <f>(D12+A4/2+4-A5)/SIN(PI()/6)</f>
-        <v>180.98989873223334</v>
+        <v>159.77669529663692</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
@@ -848,30 +869,30 @@
     <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>SQRT((A13*A13)-(A11*A11))</f>
-        <v>186.92522696554821</v>
+        <v>189.00947482944548</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="16">
         <f>D13-A6-A5</f>
-        <v>133.98989873223334</v>
+        <v>112.77669529663692</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f>ACOS(A11/A13)*180/PI()</f>
-        <v>60.780041789092891</v>
+        <v>59.207808706668516</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14">
         <f>(D13*SIN(PI()/3)-11.25)*2</f>
-        <v>290.98370026097405</v>
+        <v>254.2413541192264</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>0</v>
@@ -880,21 +901,21 @@
     <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <f>A12*SIN(PI()/6)+A5-A4/2-4</f>
-        <v>84.277222831138374</v>
+        <v>88.318674715465747</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="16">
         <f>((D14*2)-A5)/COS(A7*PI()/180)</f>
-        <v>280.85449178418867</v>
+        <v>220.32543199669965</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F16">
         <f>D16/25.4</f>
-        <v>11.057263456070421</v>
+        <v>8.6742296061692787</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,7 +925,7 @@
       </c>
       <c r="D17" s="2">
         <f>ACOS(D14/D16)*180/PI()</f>
-        <v>61.505172419059221</v>
+        <v>59.211918587353416</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>21</v>
@@ -913,14 +934,14 @@
     <row r="18" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f>A2+22.5</f>
-        <v>262.5</v>
+        <v>276.5</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2">
         <f>SQRT((D16*D16)-(D14*D14))</f>
-        <v>246.83183059135777</v>
+        <v>189.27417410334098</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -929,14 +950,14 @@
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>A16*2</f>
-        <v>168.55444566227675</v>
+        <v>176.63734943093149</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14">
         <f>D3+A14+A21+A8</f>
-        <v>568.92522696554818</v>
+        <v>548.00947482944548</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>22</v>
@@ -945,7 +966,7 @@
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>A19/SQRT(2)</f>
-        <v>119.18599152693533</v>
+        <v>124.9014675934294</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>2</v>
@@ -963,7 +984,7 @@
     <row r="22" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f>A3-A14-A21-A8</f>
-        <v>231.07477303445182</v>
+        <v>228.99052517055452</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>16</v>

--- a/kossel_frame_calc.xlsx
+++ b/kossel_frame_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="16275" windowHeight="9720"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="16275" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="46256512"/>
+        <c:axId val="45932928"/>
+        <c:axId val="39107648"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="46256512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45932928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45932928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46256512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="39107648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45932928"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1038,13 +1970,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>-0.17</v>
+      </c>
+      <c r="C5">
+        <v>-0.21</v>
+      </c>
+      <c r="D5">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>-0.19</v>
+      </c>
+      <c r="F5">
+        <v>-0.35</v>
+      </c>
+      <c r="G5">
+        <v>-0.27</v>
+      </c>
+      <c r="H5">
+        <v>-0.32</v>
+      </c>
+      <c r="I5">
+        <v>-0.37</v>
+      </c>
+      <c r="J5">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-3</v>
+      </c>
+      <c r="B6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-0.16</v>
+      </c>
+      <c r="D6">
+        <v>-0.22</v>
+      </c>
+      <c r="E6">
+        <v>-0.22</v>
+      </c>
+      <c r="F6">
+        <v>-0.23</v>
+      </c>
+      <c r="G6">
+        <v>-0.25</v>
+      </c>
+      <c r="H6">
+        <v>-0.27</v>
+      </c>
+      <c r="I6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-2</v>
+      </c>
+      <c r="B7">
+        <v>-0.1</v>
+      </c>
+      <c r="C7">
+        <v>-0.12</v>
+      </c>
+      <c r="D7">
+        <v>-0.16</v>
+      </c>
+      <c r="E7">
+        <v>-0.24</v>
+      </c>
+      <c r="F7">
+        <v>-0.12</v>
+      </c>
+      <c r="G7">
+        <v>-0.24</v>
+      </c>
+      <c r="H7">
+        <v>-0.22</v>
+      </c>
+      <c r="I7">
+        <v>-0.16</v>
+      </c>
+      <c r="J7">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>-0.06</v>
+      </c>
+      <c r="C8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>-0.09</v>
+      </c>
+      <c r="E8">
+        <v>-0.21</v>
+      </c>
+      <c r="F8">
+        <v>-0.23</v>
+      </c>
+      <c r="G8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.06</v>
+      </c>
+      <c r="I8">
+        <v>-0.08</v>
+      </c>
+      <c r="J8">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-0.01</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>-0.06</v>
+      </c>
+      <c r="F9">
+        <v>-0.05</v>
+      </c>
+      <c r="G9">
+        <v>-0.03</v>
+      </c>
+      <c r="H9">
+        <v>-0.01</v>
+      </c>
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+      <c r="D10">
+        <v>-0.13</v>
+      </c>
+      <c r="E10">
+        <v>-0.15</v>
+      </c>
+      <c r="F10">
+        <v>-0.17</v>
+      </c>
+      <c r="G10">
+        <v>-0.18</v>
+      </c>
+      <c r="H10">
+        <v>-0.1</v>
+      </c>
+      <c r="I10">
+        <v>-0.02</v>
+      </c>
+      <c r="J10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.16</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.09</v>
+      </c>
+      <c r="F11">
+        <v>-0.17</v>
+      </c>
+      <c r="G11">
+        <v>-0.15</v>
+      </c>
+      <c r="H11">
+        <v>-0.13</v>
+      </c>
+      <c r="I11">
+        <v>-0.12</v>
+      </c>
+      <c r="J11">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.16</v>
+      </c>
+      <c r="C12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.12</v>
+      </c>
+      <c r="E12">
+        <v>-0.02</v>
+      </c>
+      <c r="F12">
+        <v>-0.24</v>
+      </c>
+      <c r="G12">
+        <v>-0.25</v>
+      </c>
+      <c r="H12">
+        <v>-0.17</v>
+      </c>
+      <c r="I12">
+        <v>-0.09</v>
+      </c>
+      <c r="J12">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.34</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>-0.31</v>
+      </c>
+      <c r="G13">
+        <v>-0.36</v>
+      </c>
+      <c r="H13">
+        <v>-0.34</v>
+      </c>
+      <c r="I13">
+        <v>-0.19</v>
+      </c>
+      <c r="J13">
+        <v>-0.04</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
